--- a/classfiers/chatty/elm/chatty_elm_tanh_results.xlsx
+++ b/classfiers/chatty/elm/chatty_elm_tanh_results.xlsx
@@ -465,7 +465,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9742489270386266</v>
+        <v>0.9812206572769953</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -474,7 +474,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8649045521292217</v>
+        <v>0.7595693779904307</v>
       </c>
     </row>
     <row r="3">
@@ -482,7 +482,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9871244635193133</v>
+        <v>0.9859154929577465</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -491,7 +491,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5627705627705627</v>
+        <v>0.4523809523809524</v>
       </c>
     </row>
     <row r="4">
@@ -499,7 +499,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9957081545064378</v>
+        <v>0.9811320754716981</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -508,7 +508,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4482758620689655</v>
+        <v>0.2776442307692308</v>
       </c>
     </row>
     <row r="5">
@@ -516,7 +516,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9870689655172413</v>
+        <v>0.9575471698113207</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -525,7 +525,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8806404657933042</v>
+        <v>0.2910539215686275</v>
       </c>
     </row>
     <row r="6">
@@ -533,7 +533,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.978448275862069</v>
+        <v>0.9716981132075472</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7598684210526315</v>
+        <v>0.450242718446602</v>
       </c>
     </row>
     <row r="7">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9845197572887375</v>
+        <v>0.9755027017450615</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -561,7 +561,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7032919727629371</v>
+        <v>0.4461782402311686</v>
       </c>
     </row>
   </sheetData>
